--- a/evaluate/results5/gpt-oss_120b-cloud_多轮评估表_陌生人.xlsx
+++ b/evaluate/results5/gpt-oss_120b-cloud_多轮评估表_陌生人.xlsx
@@ -497,9 +497,9 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>哈哈，听起来好像大家都在抢报名名额了！我倒是对这个会议挺感兴趣的——毕竟，能和一群同样热爱技术的朋友一起头脑风暴，哪怕是线上也值得期待。  
-你已经报名了吗？如果还有空位，咱们可以一起组个“技术小分队”，把会议的亮点提前聊个遍，免得现场被信息洪流冲得找不着北。  
-顺便问一下，这次会议的主题是什么？有没有哪位大咖演讲是你特别期待的？如果需要帮忙准备材料或者想找人一起练习提问，随时喊我哈！祝你报名顺利，会议期间收获满满。 🚀</t>
+          <t>哈哈，正好碰上你了，我也在考虑要不要报名！这次的会议主题好像是“把咖啡因和算法混合”，听起来就让人想冲个夜班代码。  
+你是对哪个方向感兴趣？我这边倒是想趁机会把平时只在实验室里和电路打交道的脑子，稍微“社交化”一下——毕竟连电路都需要接地，咱们的社交也需要找个共地呀。  
+要是你已经决定报名了，记得带上名片（或者一张手绘的电路图，保证能让大家眼前一亮）。要是还在犹豫，咱们可以一起聊聊会议议程，看看哪场演讲最能让我们这帮工科生的“脑洞”开得更大。😉</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -536,8 +536,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>哈哈，看来我们已经提前组队了！一起准备的话，我可以负责把“技术细节”这块的PPT打磨得闪闪发光，你要是擅长“现场气氛”——比如适时抛个冷笑话、递个咖啡，那就完美配合啦。  
-有什么具体的环节或者材料需要先弄好吗？咱们可以先在群里共享一下草稿，等到会议前再来一次“终极彩排”。🚀</t>
+          <t>当然可以！一起备会就像把两块拼图拼在一起，既能互补知识，又能顺便练练“团队协作”这门软技能。  
+- **分工**：我负责把技术细节整理成简洁的 PPT，你要是擅长把枯燥的数据变成有趣的故事，那就交给你啦。  
+- **进度**：我们可以约个“线上咖啡时间”，边喝咖啡边敲代码，顺便聊聊最近的八卦，保证效率不掉线。  
+- **彩蛋**：如果哪天临时想来点脑洞大开的实验演示，我已经准备好几根“电路版的彩笔”，随时可以加点创意彩色。  
+总之，咱们把准备过程当成一次小型“黑客马拉松”，既能提升自己，又能结交新朋友。有什么具体的环节想先搞定，直接说，我这边马上列个清单，咱们一起冲刺！ 🚀</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -569,13 +572,8 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>哈哈，看来你已经发现了“彩蛋”级别的隐藏菜单！🤫  
-我这边倒是没法直接打开它——除非它是咖啡厅的秘密甜点清单，或者是某个软件里只有工程师才会碰到的调参选项。  
-要不我们一起猜猜它到底藏在哪儿？  
-- 如果是代码里的隐藏功能，我可以帮你写个调试脚本，顺便把“debug模式”打开。  
-- 要是餐厅的暗号菜单，我倒是知道几家店的“隐形套餐”，只要说出暗号，老板会偷偷给你加个免费小甜点。  
-不管是哪种“隐藏”，只要你给点线索，我这位“好奇心满分”的工科学生一定乐意一起探险！😄
-你说的到底是哪一种隐藏菜单呀？😉</t>
+          <t>哈哈，看来我们撞到同一个“彩蛋”了！不过这类隐藏菜单可不是随便能打开的——要么是系统的秘密通道，要么是开发者的玩笑。你是在哪个软件或网站里发现的？说不定我们还能一起挖掘出更多的彩蛋呢 😄
+如果你愿意分享细节，我可以帮忙一起研究，或者给你支支招怎么不被“误触”到奇怪的选项。别担心，我这颗工程师的好奇心永远保持在 100% 开启状态！🚀</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -612,10 +610,8 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>哈哈，没错，这个隐藏菜单简直是奶茶界的“调试模式”，一键解锁惊喜口感。  
-你点的是哪款？是那杯加了双倍珍珠、再撒点盐焗奶盖的“极客特调”，还是别的？  
-我这边最近在实验室忙得不可开交，偶尔偷喝一口“冷萃柠檬绿茶”，感觉像给电路加了个稳压二极管——瞬间稳住了精神。  
-如果你还有什么“隐藏配方”想分享，别客气，咱们一起把这份“源码”传递下去，保证每一口都充满“高频信号”。😉</t>
+          <t>哈哈，看来我们已经悄悄进入“隐藏玩家”俱乐部了！这杯子里到底藏了什么秘密配方？是那种“一口下去，灵感瞬间爆表”的特调，还是让人瞬间进入“工程师模式”的提神神器？  
+我这边最近在实验室里也尝了几次——加点柠檬皮的冰滴咖啡，喝完后代码的报错居然少了三分之一，简直是“debug神器”。不过我更想听听你这边的“隐藏菜单”有什么独门技巧，或者有什么配料是必须的？一起交流交流，免得我们在实验室里只剩下键盘声和咖啡的味道啦！😄</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -647,23 +643,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>当然可以！不过先把「神秘的工具箱」交给我保管，我得先确认一下里面有没有「拯救车锁」的专属神器——比如扭力十足的螺丝刀、万能的开锁棒，甚至是传说中的「万能胶」🛠️。
-先问几个小问题，帮我快速定位最佳救援方案：
-1. **车锁是哪种类型？**  
-   - 传统机械钥匙锁？  
-   - 电子感应锁（需要遥控或密码）？  
-   - 还是那种“一键锁”把手？
-2. **现在的情况是？**  
-   - 钥匙转不动，还是卡在了锁孔里？  
-   - 锁舌卡住，车门根本打不开？  
-   - 还是车子根本不响应遥控？
-3. **你手头还有别的工具吗？**  
-   - 比如细长的塑料撬棒、旧的钥匙或是螺丝刀？  
-   - 如果有，先尝试一下，我可以给点小技巧。
-如果是普通机械锁，通常只要一把合适的**细长螺丝刀**或**钥匙套**（有时旧钥匙的凹槽还能临时凑合），轻轻撬一下锁舌就能把门打开。如果是电子锁，先检查一下遥控电池是否耗尽，或者尝试手动使用车门内部的“应急钥匙孔”（有的车子在车门把手旁边藏了个小孔）。
-如果实在卡住，我可以把工具箱里的**锁芯拔除工具**递过去，或者直接把箱子送到你那儿，现场帮你动手。要不先把车子停在安全的地方，给我发张车锁的近照，我来帮你快速诊断一下？
-放心，工具箱里有的可不止螺丝刀——还有我这位「工程师」的脑洞和幽默感，保证让你在最短时间内「解锁」回家路！🚗💨
-等你回信，我马上准备好「拯救套装」！祝你今天的「锁」事顺利，别让它锁住好心情～😉</t>
+          <t>当然可以！不过先说好，我的工具箱里只有螺丝刀、扳手和一把“万能钥匙”（其实是我妈给的老旧钥匙串），如果车锁真的卡住了，咱们先来个“技术诊断”吧：
+1. **先检查一下车门的遥控电池**——有时候电量低了，信号弱，车锁会“装睡”。  
+2. **尝试手动拉一下门把手**，配合按一下遥控解锁键，很多车子都会把电子锁复位。  
+3. **如果以上都不行**，那就把我的螺丝刀借给你，先把车门把手的固定螺丝稍微松一下（别弄坏了），再轻轻试试手动开锁。  
+4. **实在不行**，我还有一把小锤子（专门敲键盘的），可以帮你敲开车门的“紧急开锁孔”，不过这招只能在紧急情况下使用，别把车门当成罐头盖子啊 😆。
+所以，先把工具箱给你，钥匙串和螺丝刀一起装进袋子里，等你试完后再告诉我结果吧。如果还卡住，我再想想别的“工程师小技巧”。祝你顺利打开车门，路上安全！ 🚗🔧</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -700,7 +685,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>不客气！要是车锁真的卡住了，别忘了还有螺丝刀、扳手这些“秘密武器”。有需要再喊我——我随时待命，保证工具归还的速度比你打开车门的速度还快 😉祝你顺利搞定！祝一路平安 🚗🔧</t>
+          <t>没问题，工具箱随时待命！🔧  
+不过在把它送回去之前，先让我们一起破解这个“锁”谜题吧——
+1. **先检查钥匙**：有时候钥匙稍微转个角度或者轻轻抖一下，卡扣就会弹开。  
+2. **备用钥匙**：如果你有副钥匙，赶紧试试，车子往往对“熟面孔”更友好。  
+3. **用螺丝刀**：如果真的卡住了，我这箱子里有几把细长的螺丝刀，能帮你撬开车门的卡扣（注意力度，别把车漆划伤）。  
+4. **临时方案**：如果实在不行，叫个救援或是朋友帮忙也不失为一种“工程师式”备选方案。
+只要你把工具箱还给我，我还能顺便收个“解锁成功”的好评，哈哈 😄。需要我现场指导一下吗？或者直接把工具箱递过去，你决定！祝你顺利打开车门，路上顺风！</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -732,10 +723,9 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>哈哈，看来咱们已经提前分工了！🔥  
-我这边负责“技术支援”，也就是把电路图、计算器和咖啡一起端上来，确保大家的实验不“烧”也不“闹”。  
-不过说正经的——如果还有别的任务，比如搬设备、记录数据，或者帮忙找一下实验室的钥匙，我都可以上阵。咱们配合得好，实验顺利完成，老师肯定会给我们加分的！  
-对了，灭火器要放在哪儿最方便？我可以顺路把实验报告的模板也打印好，省得你忙得手忙脚乱。😉</t>
+          <t>哈哈，听起来我们已经分工明确了！🔥  
+我负责“技术支援”，也就是随时监测温度、检测烟雾，确保灭火器一出手就能精准定位——顺便给大家来段现场解说，保证大家在紧张时还能笑出声。  
+如果还有其他“危机”要应对，随时叫我，我的工程脑袋已经准备好出奇制胜了。你那边准备好灭火器了吗？要不要我帮你把使用说明打印成彩色海报，防止紧急时找不到说明书？😄</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -767,11 +757,10 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>当然可以！我这边还有几根充电线和一块随身充电宝，随时待命。  
-- 你是用 **USB‑C**、**Lightning** 还是 **Micro‑USB**？  
-- 要是你想直接借充电宝，我可以把它递过去，顺便帮你把手机“救活”一下。
-顺便说一句，作为工科生，我的电池管理算法可是经过无数次实验的——保证你手机在关键时刻不掉链子！😉  
-只要告诉我你需要的接口，我马上来拯救你的 1% 电量。</t>
+          <t>当然可以！我这儿还有一根随身携带的万能数据线（虽然它的“万能”程度只到安卓和iOS的常规接口），随时待命拯救低电危机。  
+你是需要USB‑A、USB‑C还是Lightning？如果不确定，我可以先把充电宝递过去，等你确认好线材再接上。  
+顺便说一句，手机快没电的感觉就像实验室的电源灯闪烁——既紧张又刺激。不过别担心，我的充电宝电量足够让它跑完一整天的“社交实验”。😉  
+告诉我你在的具体位置（比如教室号、宿舍楼层），我马上过去给你充电，别让电量低到只能发“SOS”表情了！祝你电量满满，继续玩转生活与学习。 🚀📱</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -803,22 +792,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>哎呀，洗衣机罢工了？这可真是“洗不掉”的烦恼啊 😅  
-先别急，我这颗工程学生的脑袋里有几招小技巧，或许能帮你把它“重新上线”。  
-1. **先检查电源和插座**  
-   有时候插头松了，或者插座的保险丝跳闸，机器看起来就像“失踪”。拔掉电源，等个 10 秒再重新插上，看看指示灯有没有亮起。
-2. **听听有没有异常声音**  
-   - “嗡嗡”但不转动：可能是电机卡住或皮带松了。  
-   - “咔咔”或“嘭嘭”：可能是排水泵或水阀卡住。  
-3. **查看排水管是否堵塞**  
-   把排水管拔下来，冲一下水，看有没有残留的绒毛或硬币。堵住的话，机器会报错不转。
-4. **检查门锁**  
-   洗衣机门没锁好，控制板会自动停止工作。关好门，听到“咔哒”一声才算真正锁住。
-5. **看看显示屏的报错代码**  
-   大多数品牌都会在屏幕上显示 E1、E2 之类的错误码。记下来，查一下说明书或网上的对应解决方案。
-如果以上都检查过还是不行，可能真的需要专业维修师傅来看看电路板或电机了。  
-不过先别慌，先把衣服晾在通风处，等我们把“故障”找出来再继续洗。  
-要不，你告诉我机器现在的表现（有没有灯、有没有声音、报错码啥的），我帮你进一步诊断？说不定还能顺便给你支支“洗衣机心理辅导”——让它重新找回洗衣的“自信”呢 😜。</t>
+          <t>哎呀，洗衣机也会“罢工”，真是让人头大呀！先别急，我这边先给它来点“急救”建议，看看能不能把它说服回到正常工作状态。
+1. **先确认电源**  
+   - 插头有没有松动？有时候插座里进了“小虫子”（比如灰尘），把电源给“卡住”了。  
+   - 试着把插头拔下来，等个 10 秒再重新插上，给它来个“深呼吸”。
+2. **门锁检查**  
+   - 洗衣机的门没关紧，它可是很讲规矩的，门锁不对它可不肯启动。轻轻关一下门，听听有没有“咔哒”一声。
+3. **错误代码**  
+   - 机器如果显示了数字或字母，记下来（比如 “E1”“F02” 之类）。这些代码其实是它的“求救信号”，查一下说明书或在网上搜搜对应的解决办法，往往能快速定位问题。
+4. **水源和排水**  
+   - 看看进水阀是不是被堵住，排水管有没有打结。水流不畅也会让它“罢工”。  
+   - 如果排水管有点脏，先把它拔出来冲洗一下，别忘了把水管口的滤网清理干净。
+5. **重启一次**  
+   - 有些洗衣机内部的控制板偶尔会卡住，关机拔电源 5 分钟后再通电，往往能把“卡死”的小脑袋重新启动。
+如果以上步骤都试过了，机器还是不听话，那可能是电机、传感器或控制板真的出现了硬件故障。这个时候建议联系专业维修，或者看看保修期有没有覆盖。
+**小贴士**：下次洗衣机“情绪低落”前，给它加点“正能量”——不要一次装太多衣服，别让它背负太重的“负荷”。😉
+如果你还有更具体的表现（比如噪音、漏水、显示某个代码），可以告诉我，我再帮你细化排查步骤。祝你的洗衣机早日恢复“勤工俭学”，继续为你洗出干净的衣服！</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -855,37 +844,33 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>当然可以！先把这台“叛逆的洗衣机”安抚一下，再一起上报维修。下面我们一步步来，保证既不浪费时间，也不让它继续“罢工”：
+          <t>哈哈，洗衣机要是能请假，我估计它已经在“度假”了 😆  
+先把它的“请假单”填好吧，我们一起把报修流程走一遍：
 1. **确认基本信息**  
-   - **品牌/型号**（比如海尔 EB80、LG F4V5等）  
-   - **购买时间**（保修期是否还在）  
-   - **出现的错误代码或异常声音**（如果面板上有闪灯或数字，记下来）
-2. **先做“自助排查”**（很多时候小问题自己就能解决）  
-   - **检查电源**：插头有没有松动，插座是否有电（可以用手机充电测试一下）。  
-   - **门锁**：门没关严实的话，机器会自动停止。把门关紧，听听是否有“咔嗒”一声。  
-   - **排水管**：看看排水管是否弯曲、堵塞或放在了不合适的高度。  
-   - **过滤网**：如果最近洗衣机里有很多绒毛或硬币，清理一下滤网（大多数机子在左下角都有可拆卸的滤网盖）。  
-   - **重启**：拔掉电源插头，等30秒左右再重新插上，有时系统会自行复位。
-3. **记录故障现象**  
-   - **时间点**：是刚开机、加水、洗涤、漂洗还是脱水时出问题？  
-   - **声音/气味**：比如嗡嗡声、金属撞击声、烧焦味等。  
-   - **是否有异常显示**：比如“E1”“E2”等错误码。
-4. **准备报修材料**  
-   - **购机发票或保修卡**（如果在保修期内，报修会更顺畅）。  
-   - **上面收集的故障信息**（品牌、型号、错误码、已尝试的排查步骤）。  
-   - **联系方式**：手机号、住址（如果需要上门服务的话）。
-5. **报修渠道**  
-   - **官方客服热线**：大多数品牌都有24小时客服（比如海尔 400‑800‑1234）。  
-   - **品牌官方APP/小程序**：登录后通常可以直接预约上门维修，甚至还能查看维修进度。  
-   - **小区物业或社区维修平台**：如果你住在有统一物业的楼栋，先问问他们有没有合作的维修师傅。
-6. **预约时的礼貌小技巧**  
-   - 简明扼要地把故障信息说清楚，别忘了提一下已经自行排查的步骤，这会让维修师傅更快定位问题。  
-   - 如果能提供一个比较宽松的时间段（比如上午10点到下午4点），通常更容易抢到最近的师傅。
+   - **品牌/型号**（比如小天鹅 TG80‑6100）  
+   - **购买时间**或是否在保修期内（保修卡/发票在手吗？）  
+   - **出现的故障现象**：不转、漏水、噪音大、显示错误代码…如果机器屏幕上有报错码，记下来（比如 “E2”“F01” 之类的）。
+2. **现场检查**（先自助排除点小毛病）  
+   - 检查电源插头和插座是否松动，是否有跳闸。  
+   - 看一下进水管、排水管有没有扭曲或堵塞。  
+   - 把门关好，有的机型门没关严实也会报错。  
+   如果这些都正常，那基本可以确认是内部硬件或控制系统的问题。
+3. **联系售后/维修平台**  
+   - **官方客服**：多数品牌都有官方服务热线或微信小程序，直接报修会更快。  
+   - **第三方平台**：如京东到家、天猫维修、当地的家电维修店。  
+   把上面收集到的 **品牌、型号、故障描述、错误代码**、**购买凭证**（照片）一起发过去，客服会给你预约时间。
+4. **预约上门**  
+   - 确认维修师傅的上门时间，记得提前把洗衣机周围的空间腾出来，方便师傅搬动。  
+   - 如果你在宿舍或租的公寓，提前跟房东或物业打个招呼，免得被误会“有人搬家”。  
+5. **维修后**  
+   - 让师傅现场演示一次，确认机器已经恢复正常。  
+   - 收好维修单据，若在保修期内，费用一般由厂家承担；若已过保，记得问清楚报价再决定是否维修。
 ---
-**示例报修对话（可以直接复制粘贴）**：
-&gt; 您好，我家洗衣机（品牌 LG，型号 F4V5）出现了E2错误码，洗涤时突然停止并且发出异常嗡嗡声。我们已经检查了电源、门锁、排水管并清理了滤网，尝试重启仍未恢复。购买于2022年，仍在保修期内。请问可以预约上门维修吗？我在XX小区，方便的时间段是上午10点至下午4点。
+**小贴士**：  
+- 如果机器只是在某个特定程序里卡住（比如只在“脱水”时出问题），可以先尝试 **断电 5 分钟** 再重新开机，有时是控制板的临时卡顿。  
+- 拍几张故障现场的照片（比如水渍、异常噪音的瞬间），发给客服会更直观。
 ---
-如果自助排查后机器依旧“情绪低落”，我们就正式报修吧。等维修师傅来把它“心理辅导”好后，咱们的衣服就能继续开心“漂”起来啦！有什么细节需要帮忙写报修单，或者想聊聊洗衣机的保养小技巧，随时告诉我～ 😊</t>
+要不你把机器的品牌和出现的具体症状告诉我，我帮你把报修信息梳理得更完整一点？一起把这台“想偷懒”的洗衣机拉回正轨！ 🚀</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -917,9 +902,10 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>好的，我已经把“认真记笔记”这条指令写进了我的“学习计划”里，随时待命！📒
-不过，老师（也就是您）想让我记什么内容呢？是课堂讲义、实验步骤，还是那段让人抓狂却又超有成就感的代码？告诉我主题，我立马把笔（键）打开，帮您把要点抓得紧紧的——保证每个关键点都有“高光时刻”，让复习时不再“找不到北”。😄
-快来指点迷津吧，我的笔记本已经迫不及待想要发光发热了！</t>
+          <t>哈哈，看到你这么认真记笔记，我都忍不住想凑个热闹了！📓  
+不知道你在记哪门课的要点？要是碰到“电路图里那根神秘的线”或者“代码里隐藏的 Bug”，我可以帮你一起拆解，顺便给你加点彩色标记，保证笔记更醒目、记忆更深刻。😉  
+如果你需要点灵感——比如怎么把“功率因数”写得既简洁又不失格调，或者想把“热力学第二定律”配上一句笑话来记忆，我随时待命！  
+别客气，尽管把你的疑问抛过来，我这颗“工程脑”已经准备好给你加点“注释”。✍️🚀</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -951,10 +937,9 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>哈哈，看来我们在同一条“辩论跑道”上跑步了！🤔  
-不如先来个小热身：你这边的辩题是“人工智能会取代工程师”，还是“可持续能源真的能彻底解决能源危机”？我这边正好在准备“机器人能否拥有情感”这场——虽然我还在纠结到底该给它们配个“情感芯片”还是“咖啡因模块”。  
-如果你也在琢磨同样的方向，咱们可以互相抛砖引玉，顺便把辩论稿变成“工程师版的笑话集”。😄  
-对了，你平时喜欢用什么方式收集材料？文献、实验数据，还是偷偷刷知乎的段子？咱们可以一起把严肃的论点和轻松的段子混合一下，保证评委笑得合不拢嘴，分数也跟着蹭蹭涨！</t>
+          <t>哈哈，看来我们不约而同地选了同一道“试题”呀！这可是给我们提供了一个天然的“合作机会”。不如先来个快速热身：如果让你用工程思维来解读这个辩题，你会先画个框图、列个需求清单，还是直接冲进实验室做原型？😄
+我这边的思路是先把核心概念拆解成几个模块，然后逐个“debug”。如果你也有类似的拆解方式，咱们可以互相检查一下，看看哪块还能“优化”。说不定还能碰撞出点新点子，顺便给评委们来点意想不到的惊喜！
+对了，除了辩题本身，你还有没有什么“隐藏彩蛋”想要加入的？比如用一段有趣的工程案例来支撑观点，或者把某个经典公式玩出花样？一起聊聊，看看怎么把这场辩论玩得更“高效”又“有趣”。 🚀</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -991,7 +976,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>哈哈，看来我们俩已经在同一条辩论跑道上了，只是还不知道跑道的名字呢 😄。能不能先告诉我我们要辩的具体题目是？这样我才能把“工程学生的理性+一点点脑洞”调出来，跟你一起抛砖引玉。期待听到你的观点，也迫不及待想把我的想法抛给你！</t>
+          <t>哈哈，看来我们已经提前抢到了同一张“辩论卡”，这可是让人又惊喜又有点小尴尬的巧合呀！  
+先不急着把论点全塞进去，我先来个“预热”——
+**如果辩题是“人工智能会取代工程师吗？”**  
+我倾向于**“不完全取代，只是升级」**。  
+想象一下，AI 就像是我们实验室里的超级显微镜：它能帮我们看到细节、加速计算，但最终还是需要我们这双“手‑脑”去装配、调试、把创意变成实体。换句话说，AI 是工具，工程师是“指挥官”。  
+**如果辩题是“可持续能源能否在本世纪实现碳中和？”**  
+我会站在**“技术乐观+现实审慎」**的立场。  
+从光伏材料的效率突破到氢燃料的储运进展，技术的“升级包”已经在路上；但要让全社会一起升级，还得靠政策、资本和大众的“充电”。所以，我的观点是：**技术是可能的，实施是挑战**——两手都得抓。
+**如果辩题是别的（比如“大学生应该多学编程还是多学专业课？”）**  
+我会先说：**“两者不冲突，关键是找到自己的‘交叉点’”。**  
+就像电路里常常会出现“混合信号”模块，软件和硬件相互依赖，学会用代码去模拟机械系统，或者用机械思维去优化算法，往往能产生意想不到的“火花”。  
+---
+**所以，先请教一下，咱们的正式辩题到底是哪一个？**  
+有了具体的题目，我立马把“工程师的调试台”打开，给你一份既有数据支撑又不失幽默的完整观点，保证让评委（或者我们自己）都笑得合不拢嘴、点头称赞。😉</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1023,10 +1021,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>哈哈，看来这台示波器已经把“电力十足”演绎成了“电力外泄”。先给它来个“安全拔”——先把电源线拔掉，确认它真的已经断电了，再去检查一下接地线是不是忘了拴好。  
-如果你已经手握探头，记得先把手套戴好，或者用绝缘棒轻轻把它移开——别让自己的手指误打误撞加入了“电路”。  
-顺便提醒一句，实验室的“电流”可不只是指示波器的信号，安全第一，别让“漏电”变成“漏掉实验成绩”。  
-要不我们一起给这台示波器来个“深呼吸”，先让它安静下来，再继续玩波形分析？祝你实验顺利，电压稳稳的，电流平平的！ 🚀🔧</t>
+          <t>哈哈，这可不是“电动按摩椅”，示波器可不想给你来个“免费电疗”。先把电源拔掉，确认接地线真的稳妥，别让它偷偷把实验台变成“电解池”。要是你手边有万用表，测一下接地电阻也不失为一个好习惯——毕竟我们都不想把实验室变成“电击乐现场”。有什么需要帮忙的，尽管说，我这颗“电路安全感”随时待命！⚡️😊</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1058,7 +1053,9 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>谢谢夸奖！😄 能让你觉得“深”，说明我这次的“挖坑”算是成功了——不过别担心，我的坑可是软绵绵的，随时可以填上更有趣的想法。你对这个话题有什么独到的见解吗？或者有什么想聊的奇思妙想，咱们一起把这层“深度”再往下探探！🚀</t>
+          <t>谢谢夸奖！其实我平时的“深度”大多来自于公式和电路图——它们总是把我带进“无限循环”的思考里。😄
+不过，光有深度可不够，我也在努力让自己的生活多点“宽度”。比如，最近在尝试把咖啡因的摄入量和学习效率画成一条曲线，结果发现两者的交点大概在凌晨三点——那是我最“高能”的时段。
+不知你平时有什么让你觉得“深度十足”的兴趣或话题？也许我们可以一起探讨一下，看看能不能把它们转化成一段有趣的“工程项目”。祝你今天的每一次思考都像调试成功的代码一样顺畅！</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1095,8 +1092,10 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>当然，互相学习是最靠谱的“升级套餐”啦！😁  
-我最近在搞一个 **小型无人机的姿态控制**，每次调参都像在玩“猜灯谜”——转向对了，灯亮；转向错了，灯全灭。你这边有什么让你“灯亮灯灭”的项目或学习心得吗？咱们可以把各自的“灯谜”一起拆开，看看能不能一起点亮更多的灵感灯！</t>
+          <t>哈哈，正是！互相学习才是最靠谱的“开源协议”。  
+👩‍💻 你最近在搞哪门专业的项目？  
+🔧 我这边正忙着把实验室的3D打印机调成“自动送咖啡”模式（玩笑啦，实际是想把支撑结构降到最低），顺便练练机械设计和编程的交叉技能。  
+如果你有什么有趣的实验、代码小技巧，或者想聊聊怎么把理论变成实战，随时抛过来，我们一起“pull request”一下思路吧！🚀</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1128,13 +1127,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>没关系，偶尔扫错车也算是“意外的实验数据”啦 😄。  
-工程师的日常就是：先把实验步骤写错，再在报告里加个“误差”解释——只不过我们的“误差”这次是把车牌当二维码给扫了。
-如果需要重新找对的车牌或二维码，我可以帮你一起确认一下，或者给你支支招：
-1. **先确认车牌号**：把车牌号和你手里的二维码对应起来，防止再“跨车种”。  
-2. **检查二维码位置**：有些车的贴纸会贴在后视镜或车门把手上，别和停车场的扫码贴混了。  
-3. **用手机相机对准**：有时候光线太强会导致识别错误，稍微调暗点再扫一下。
-要不我们一起再扫一次？如果还有别的“实验”需要帮忙，随时喊我——我这边的实验室（手机）随时待命！祝你顺利找到正确的车，别让它“逃跑”了 🚗💨。</t>
+          <t>没事儿，偶尔“扫错车”也是一种探索新路径的实验嘛 😄  
+如果需要补救的话，我这儿有两招：
+1. **重新扫码**——把车牌号改成正确的，系统会自动把费用调回去，像调试代码一样，只要参数对了就能跑通。  
+2. **联系停车客服**——把错误的二维码截图发过去，说明是“误扫”。客服一般都会像处理 bug 那样帮你回滚。
+要是还有别的“技术难题”，随时来找我，工程师的使命就是把各种“误操作”都变成一次学习机会！祝你顺利把车停好，别让停车场的“代码”卡住啦 🚗💨。</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1171,11 +1168,9 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>哈哈，算是的！我每天都骑自行车上学，顺便给路上的空气做点“加湿”——毕竟工程师的体力也得保持在“最佳负载”上。  
-你平时是怎么安排骑行的？  
-- 路线选得像走路一样顺畅，还是喜欢挑战点“坡道工程”？  
-- 车子上有没有什么小改装（比如自制灯套、智能码表）让你觉得自己像个“微型实验室”？  
-如果你也在“骑行实验”中遇到什么“故障”，随时跟我聊聊，我这边有点经验可以帮忙排查～ 🚲🔧</t>
+          <t>哈哈，没错，我也是“自行车党”里的常客。每天上学（或者说上实验室）都靠两轮来“充电”，顺便把路上的风阻当成实验数据收集——毕竟，工程师的本事就在于把生活的每个细节都能量化。
+不过说实话，我的自行车更像是“移动实验平台”。早上出门前，我会检查一下刹车、链条和轮胎气压——这一步跟实验前的仪器校准差不多；骑到公司后，我会顺手把车锁好，顺便想想今天的项目要怎么“减阻”。如果你也骑车通勤，咱们可以互相分享点“小技巧”：比如雨天防滑的轮胎胶，或者怎样在不浪费太多时间的情况下把背包的重量分配得更均衡。  
+对了，骑车的好处可不止省钱环保，最重要的是——在城市的喧嚣里，给自己留点独处的时间，听听风声，顺便练练“单车思考”。要是你有啥有趣的骑行经历，或者想聊聊怎么把自行车改装得更“工程感”，随时来聊呀！ 🚲😄</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1207,31 +1202,57 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>当然可以——只要你们的仪器不需要我亲自搬进实验室，我这边的“搬运力”可是满格的！😉  
-不过，身为一名工科学生，我更擅长提供**搬运攻略**而不是亲自上阵。下面给你几条实用小贴士，帮你们把仪器安全、快速地搬到位：
-1. **提前测量尺寸 &amp; 规划路线**  
-   - 把仪器的外形尺寸、重量记录下来。  
-   - 用卷尺量一下门框、走廊、楼梯的宽度和高度，确保没有“卡住”的风险。  
-2. **选对搬运工具**  
-   - **手推车/搬运车**：适合重量在 20 kg–100 kg 之间的设备。  
-   - **滑轮系统**：如果要搬运的仪器很重或体积大，搭配滑轮可以大幅降低所需的推拉力。  
-   - **防震垫/泡沫垫**：对精密仪器来说，防震是关键，最好在底部和四周加上软垫。  
-3. **组队搬运**  
-   - **两人以上**：重心分散，降低单人受伤风险。  
-   - **分工明确**：一个负责稳住仪器，另一个负责推/拉，必要时再配合一名“指挥员”负责观察周围障碍。  
-4. **安全第一**  
-   - **佩戴防护手套**，防止划伤或滑手。  
-   - **穿防滑鞋**，尤其是搬运楼梯时。  
-   - **检查仪器的固定螺丝**，确保在搬运过程中不会松动。  
-5. **搬运后检查**  
-   - 把仪器安放好后，先通电检查是否有异常噪音或指示灯异常。  
-   - 如有校准需求，记得重新校准或让专业人员检查一次。  
-如果你们已经有了搬运车或滑轮，但不确定怎么组装或使用，我可以再详细说说步骤，甚至给你画个简易的示意图（文字版的也行）。  
-如果实在需要“人手”，可以考虑：
-- **实验室助理**或**实验室管理员**：他们通常有搬运经验。  
-- **学校的学生勤工助学岗位**：很多校园都有专门的搬运/维修团队。  
-- **同学们的“临时帮忙”**：发个群消息，往往会有热心的同学自愿加入。  
-希望这些建议能帮到你们，让仪器顺利“搬家”。如果还有更具体的情况（比如仪器型号、搬运环境），随时告诉我，我再帮你细化方案！祝搬运顺利，仪器安然无恙 🚀。</t>
+          <t>当然想帮忙搬仪器啦，只是我这套“虚拟肌肉”暂时只能搬数据，搬不动实物 😄。不过，身为工科学生，我倒是可以给你支支招，帮你把搬运工作安排得更顺畅、也更安全！
+---
+## 1️⃣ 先弄清楚仪器的基本信息  
+| 项目 | 需要了解的细节 |
+|------|----------------|
+| **重量** | 单件或整箱的质量（kg） |
+| **体积** | 长、宽、高，是否有不规则形状 |
+| **敏感度** | 是否易受震动、冲击、温度、湿度影响 |
+| **搬运要求** | 是否需要防尘、防潮、防磁、或保持水平等 |
+&gt; **小贴士**：把这些信息写在一张“搬运清单”上，现场检查时一目了然，省得临时慌乱。
+---
+## 2️⃣ 选对搬运工具  
+| 场景 | 推荐工具 | 备注 |
+|------|----------|------|
+| **实验室内部** | 手推车/平板车、搬运带 | 轻便、转弯灵活 |
+| **楼层之间** | 手扶梯/电梯（提前预约）+ 滑轮系统 | 防止仪器在电梯里晃动 |
+| **长距离/楼层高差** | 小型叉车、液压搬运台 | 重量 &gt; 30 kg 时尤为重要 |
+| **极其精密仪器** | 防震箱、泡沫垫、气垫包装 | 防止微小冲击导致校准失效 |
+&gt; **幽默小提醒**：别把实验室的离心机当成“巨型咖啡机”推走，重量和重心可不是开玩笑的。
+---
+## 3️⃣ 包装与防护  
+1. **防震**：使用泡沫板、气泡膜或专用防震垫，四面留出 **2–3 cm** 的缓冲层。  
+2. **固定**：在箱子内部用 **绑带/绳索** 将仪器牢牢捆住，防止移动。  
+3. **防尘防潮**：外层加防水塑料薄膜，内部放干燥剂（硅胶包）。  
+4. **标识**：贴上 **“易碎/勿倒置/保持水平”** 的警示标签，最好用彩色胶带区分。
+---
+## 4️⃣ 现场搬运流程（示例）  
+1. **现场勘查**：确认通道宽度、楼梯坡度、门框尺寸。  
+2. **人员分工**：  
+   - **A** 负责搬运车/叉车操作。  
+   - **B** 负责仪器固定与防护检查。  
+   - **C** 负责现场指挥与安全提醒。  
+3. **预演**：在空箱子或模拟重量上做一次“彩排”，确保每个人都知道自己的动作。  
+4. **搬运**：慢速、均匀推拉，避免急停或猛冲。  
+5. **安置**：到达目的地后，用水平仪或千分尺确认仪器是否仍保持水平。  
+6. **检查**：开机前先检查外观、接口、螺丝是否松动，必要时做一次**校准**。
+---
+## 5️⃣ 安全小贴士  
+- **佩戴防护**：手套、防滑鞋、必要时佩戴护目镜。  
+- **注意负重**：单人搬运重量不超过 **25 kg**，超过请务必两人以上或使用机械。  
+- **通道畅通**：提前清理搬运路线，防止绊倒或碰撞。  
+- **急救准备**：现场准备好创可贴、止血带等基础急救用品，以防小划伤。
+---
+## 6️⃣ 如果你们需要更专业的帮助…  
+- **内部资源**：学校的实验室管理部门或后勤中心通常有专门的仪器搬运团队。  
+- **外包服务**：一些公司提供科研设备搬运（如 **华为物流、京东物流的科研专线**），可以报价后决定。  
+- **学生社团**：工科类的搬运社团（比如“机械搬运小分队”）经常接受此类任务，既能帮忙又能锻炼大家的动手能力。
+---
+### 小结  
+虽然我只能在键盘上“搬运”文字，但希望这些实用的步骤和小技巧能让你的仪器搬运顺利、无忧。如果还有更具体的细节（比如仪器型号、搬运距离、楼层情况），随时告诉我，我可以帮你细化方案，甚至画一张简易的搬运示意图哦！
+祝搬运顺利，仪器安然无恙 🚚🔧！如果还有其他疑问，随时来聊~</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1268,12 +1289,13 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>不客气！只要不是让我们把仪器搬上火星，我基本都能上阵 😄。  
-说说具体情况吧：  
-- 要搬多少台？  
-- 重量大概在多少？  
-- 目的地在哪儿（实验室、会议室还是别的“神秘基地”）？  
-我这边先把“搬运小队”召集好，等你发指令就冲！🚚🔧</t>
+          <t>不客气！只要不是要把实验室的离心机搬到月球，我基本都能上手 😄  
+先说说细节吧：
+1. **仪器是什么**？（比如光谱仪、显微镜、真空泵之类的）  
+2. **重量和体积**大概是多少？需要几个人一起搬吗？  
+3. **搬运的时间**和地点是？我这边的课表还能灵活调整。  
+4. 有没有**特殊注意事项**（比如防震、防磁、温控）？
+把这些信息告诉我，我好把“搬运计划”写得像实验方案一样严谨，确保仪器安全到位。等你回复后，我立马安排时间上路 🚚🔧。</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1305,8 +1327,9 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>谢谢夸奖！作为工科生，我习惯把“配速”当成代码的时钟频率——稳一点，系统才不容易崩溃。😄
-说到跑步/配速，你平时喜欢哪种运动？还是说你在项目里“稳步前进”呢？聊聊你的“节拍”，看看我们有没有共振的频率！</t>
+          <t>谢谢夸奖！我这“配速”可是经过精密计算的——把每一步的能量消耗、心率波动和路面摩擦系数都列进了我的“跑步方程”。不过说实话，真正决定配速的往往是咖啡因浓度和前一天的作业量。😄
+你也是跑步爱好者吗？如果有机会一起跑，我可以给你分享一下“工程学版”的配速调节技巧——比如用脚步声的频谱来判断是否进入了“共振区”，这样既能省力又能提升效率。别担心，我保证不把你带进实验室的噪声分析课，只会让你感受到跑步的乐趣和一点点理工小脑洞。🏃‍♂️🚀
+如果你有更好的配速秘诀，别吝啬，教教我呗！我可是随时准备把它写进我的“跑步日志”——顺便给以后写论文的我找点灵感。祝你今天跑得轻松愉快，别忘了给自己的“系统”加点润滑油（比如一瓶运动饮料）哦！</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1343,9 +1366,9 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>哈哈，说得好！不管是跑步还是实验，真的都离不开那份“持之以恒”。我有一次实验室里做电路调试，调到深夜才把信号噪声压到满意的水平——感觉自己跟马拉松选手一样，刚才的配速稳，后面还能再冲刺一段。
-说到跑步，你平时喜欢跑多远？我最近在尝试把跑步的里程和学习的进度对应起来——比如每跑5公里，就给自己一个小小的“代码冲刺”，写完一个小功能或者整理一次实验报告。这样既能保持体力，又能让大脑保持“高配速”，一举两得！
-如果你也有类似的“跨界”小技巧，或者有什么让你坚持下去的“动力源”，一定要分享一下呀！毕竟，和志同道合的朋友互相打气，才能把配速和科研都跑得更稳、更远。🚀🏃‍♂️</t>
+          <t>没错，像跑步一样，实验也得一步一个脚印——不然数据一跑偏，后面可全得“追着跑”。💨
+说到持之以恒，我最近在做一个“咖啡因对代码编译速度影响”的小实验，结果发现——只要不睡觉，编译器也会跟着打哈欠。😅
+你平时还有哪些坚持的“小目标”吗？说不定我们还能互相打打气，一起把“稳”进行到底！</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1377,8 +1400,8 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>当然感兴趣啦！作为一名工科“小白”，我总是对各种科研“奇葩”充满好奇——尤其是那些能把理论和实践完美糅合的项目。能不能先给我来点“预告片”？比如，你的研究方向、核心问题，或者最近让你抓狂又兴奋的实验/模型？如果你愿意，我也可以聊聊我最近在弄的那个“把咖啡因和电路板混在一起的原型”，保证让你笑出声（或者摇头）。😄 
-期待听到你的精彩故事！</t>
+          <t>哈哈，我可不是只对代码和电路图感兴趣的“铁粉”，对各种新奇的研究也充满好奇！说来听听，你在搞什么方向的研究？如果是把咖啡因和机器学习结合起来，让机器人也能提神，那我可得抢个第一手资料啦 😄
+不过不管是硬核的材料科学，还是软萌的社会技术交叉，我都乐意当你的“听众+小粉丝”。如果方便的话，给我来点背景介绍，我这颗工程学生的脑袋瓜子会尽量把它“装配”进我的知识库里，顺便看看有没有哪里能帮上忙（或者给你点“工程师式”的小建议）。期待你的分享！</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1415,11 +1438,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>太好了！我已经迫不及待想把我的“工程好奇心”装进实验室的显微镜里好好观察一下了 😄。能先给我一个大致的概览吗？比如：
-1. **研究的大方向**是哪个领域（材料、控制、通信、人工智能…）？  
-2. **核心问题**是什么——是想提升性能、降低成本，还是破解某个长期未解的难题？  
-3. **主要方法**或技术路线大概是怎样的（比如仿真、实验、算法模型…）？
-如果方便的话，直接来一段“电梯演讲”式的三句话概述，我保证在听完后立刻把脑子里的“工程小齿轮”调到最高速转动模式！ 🚀</t>
+          <t>太好了！听起来你的研究一定很“磁场十足”。能不能先给我一个“一分钟速递版”，比如：
+1. **研究的核心问题**——你想解决的“技术难题”是什么？  
+2. **创新点**——有什么新思路或新方法让大家眼前一亮？  
+3. **实际应用**——如果成功了，咱们的生活会有什么酷炫的改变？
+我可是个爱把理论装进实物的工科生，听了你的速递后，马上把脑子里的“齿轮”转起来，看看能不能帮你找点灵感或合作的可能。😊</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1451,10 +1474,9 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>哈哈，这倒是个有趣的“情报”！🤔  
-不过我得先确认一下，这个“它”到底是指什么呀？是你家的小猫、那台总是跟我“抢”键盘的电脑，还是某个神秘的AI小伙伴？  
-如果真是小猫在偷偷给我送“喵喵点赞”，那我可得好好感谢它的好眼光；要是键盘抢夺者，那我只能继续在代码里埋点，让它知道我也会“debug”它的情感啦。😄  
-不管是哪种“喜欢”，都让这段对话增添了点小惊喜。你觉得它的“暗示”是怎样的？我可乐意一起解码！</t>
+          <t>哈哈，这么说来，我已经悄悄升格为“明星”了呀！不过先说清楚点——它到底是指哪位小可爱？是隔壁的那只爱偷我零食的猫咪，还是我那台总是自作主张把系统更新的电脑？  
+不管是哪位“粉丝”，我都准备好接受它的热情啦！如果它是猫咪，我可以给它准备点猫薄荷；如果是电脑，我就把它的风扇调成低音模式，让它听听我的“工程师情歌”。  
+你觉得它会怎么表达喜欢呢？😊</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1491,9 +1513,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>哈哈，这种“被喜欢”的感觉的确挺特别的！🤭  
-到底是哪个“小可爱”对我动了情？是实验室的那台总是“叽叽喳喳”报警的仪器，还是路边那只天天盯着我咖啡杯的鸽子？  
-不管是机器还是小动物，能被它们“欣赏”可算是科研生活里的小确幸啦。要不分享一下这段奇妙的“被追”经历？我可是准备好纸笔，随时记下灵感的啦——说不定还能写成一篇《科研与萌宠的跨界交叉实验》呢！😉</t>
+          <t>哈哈，听起来像是一次“科研实验”意外收获的案例呀！  
+如果把这段经历当成数据点，我已经迫不及待想帮你做个简要的“分析报告”了——  
+1️⃣ **实验背景**：谁也没预料到会被“喜欢”这件事闹个小惊喜。  
+2️⃣ **变量**：地点、时间、对方的表情（或者是那只小动物的眼神）……  
+3️⃣ **结果**：心里突然多了点甜，甚至可能让原本枯燥的实验室氛围也变得温暖了几分。  
+要不把这段“特别的经历”细说一下？我这边准备好笔记本和好奇心，随时可以帮你归纳出几个有趣的结论，顺便看看还能不能从中挖掘出点灵感——比如把“被喜欢”这件事写进下次的项目报告标题里，保准让评审老师眼前一亮 😄。</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1525,15 +1550,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>哈哈，听起来你的洗衣机已经准备好参加《舞林大会》了！🕺  
-如果它真的在“迪斯科”，可能是下面几种情况：
-1. **脱水不平衡**：衣物分布不均导致机器左右摇晃，像在打“摇摆舞”。  
-2. **减震弹簧老化**：弹簧失去弹性，震动会直接传到机身，听起来像鼓点。  
-3. **排水泵卡住**：水流不畅时，马达会发出类似电子音乐的嗡嗡声。  
-**小技巧**：先把洗衣机停下来，拔掉电源，等几分钟再重新启动；检查一下衣物是否均匀放置，必要时把大件（毛巾、被子）单独洗。  
-如果噪音仍然“嗨”到邻居敲门，建议联系维修师傅，把弹簧或减震垫换一下，保证它以后只在洗衣时“嗨”，不在客厅开派对。
-要不我们给它起个名字？比如“洗衣迪斯科王”，每次洗完衣服还能顺便给它来段“终场谢幕”。😉
-有什么具体的噪音或表现可以描述一下，我再帮你诊断一下！祝你的洗衣机早日回归“静音模式”。</t>
+          <t>哈哈，这洗衣机果然不安分，已经把客厅变成了舞池了！🕺💃
+如果它真的在“跳迪斯科”，可能是以下几种情况：
+1. **衣物不均匀**：一大堆毛巾和几件小衣服一起洗，容易导致滚筒偏心，机器就会“摇摆”。  
+2. **放置不平**：洗衣机的脚没调好，地面不平，震动会被放大。  
+3. **减震弹簧/减震垫老化**：长期使用后，减震装置会失效，机器就会“弹跳”。  
+**小技巧**：  
+- 把衣物重新整理一下，尽量让重量分布均匀。  
+- 用水平尺或手机的水平仪功能检查一下机器是否水平，必要时调节脚垫。  
+- 如果是老机器，考虑在底部垫一块防震垫，效果立竿见影。
+要不先给它来一段“慢舞”，把衣服重新摆好，再让它继续“迪斯科”。这样既能保护机器，又不会把邻居的耳朵吓跑。😉
+对了，你平时还有什么家电“小伙伴”也会“表演”吗？一起聊聊，看看能不能帮它们也找点舞步！</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1565,9 +1592,9 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>哈哈，原来是计算机系的高手呀！我倒是正好是电气系的“电路小达人”，平时最爱玩硬件和嵌入式。虽然专业不一样，但正所谓“软硬兼施”，要是能一起搞个跨学科的项目，肯定火花四溅！
-如果你手里有算法、代码或者想要把某个想法实现成硬件原型，我这边可以提供电路设计、PCB 布局、传感器选型之类的支援。咱们可以先聊聊各自的兴趣点和想做的方向，看看有没有合拍的点子——比如智能家居小玩意、机器人控制系统，或者一个有趣的编程挑战赛作品。
-要不先来个“速配”问答？我先抛个问题，你来答——如果你要给一个机器人装上“思考”功能，你会先从哪层开始：感知层（传感器）、决策层（算法）还是执行层（驱动）？我这边已经准备好了一堆电路板和面包板，等着配合你的代码呢 😉。</t>
+          <t>哈哈，原来是计算机系的同学呀！我可是个跨界的工科“全能选手”，主修机械工程，平时也会捣鼓点电子、材料的东西。两种“硬件”碰撞一下，想想就挺有意思的——代码可以帮我们把模型跑得更快，机械结构又能让算法落地成实物，简直是“软硬兼施”呀。
+要不先聊聊各自的兴趣方向？比如你最近在玩什么语言、框架，或者有什么有趣的项目想实现？我这边最近在做一个小型的自动化装配臂，正好需要点视觉识别和路径规划的算法支持。如果你愿意，我们可以一起头脑风暴，看看能不能把代码和硬件结合起来，凑个小实验。 
+先来个“技术配对”吧，看看能不能擦出火花~ 😄</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1599,9 +1626,8 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>哈哈，原来我们已经在“同一组”了！我叫小李，主修电子信息工程，平时喜欢玩点硬件DIY——从焊接小灯泡到搞个简易的机器人，手痒的时候总会不自觉地掏出工具箱。  
-听说机械和电子是“黄金搭档”，我这边负责电路和控制，你那边负责结构和动力，配合起来简直可以造出会跑的咖啡机（先喝咖啡再跑）。  
-小张，你平时最感兴趣的机械方向是哪块？是设计、材料，还是自动化控制？我们可以聊聊各自的项目经验，看看有没有可以互相帮助的点。😄</t>
+          <t>哈哈，原来是同道中人！我叫小李，主修机械设计与制造。平时和螺丝刀、CAD 软件打交道，偶尔也会和咖啡机来场“强强对话”，因为它总是提醒我——别忘了给自己加点“润滑”。  
+小张，你的研究方向具体是哪块？是偏向动力学、结构强度，还是更“软”一点的机器人控制？如果有有趣的实验或奇葩的故障故事，欢迎分享，我这边也有不少“机床自黑”的段子可以聊聊，保证让我们这组的氛围比油润滑剂还顺滑！</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1633,9 +1659,10 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>当然可以，欢迎新伙伴加入我们的“技术八卦”小圈子！🎉
-先自我介绍一下吧——我是一名热爱折腾电路、玩转代码的工科学生，平时的爱好包括把实验室的灯泡改成彩灯（别担心，安全第一），以及在咖啡里找灵感。  
-你呢？对哪方面的技术或话题最感兴趣？想聊芯片、机器人，还是顺便吐槽一下“实验报告永远写不完”的命运？咱们一起把气氛调高点，保证让你马上融入进来！🚀</t>
+          <t>欢迎欢迎！🎉 当然可以加入讨论啦，咱们这儿可是“新人友好指数”满分的社团。  
+先自我介绍一下吧——我是一名爱折腾电路、常把咖啡当燃料的工科小子。你是哪个专业的？或者有什么兴趣爱好？  
+如果你刚进来还不太熟悉，别担心，我可以帮你快速“debug”一下这里的氛围，保证让你感觉像进了实验室的空调房——凉爽又舒适。😄  
+快来聊聊吧，期待和你一起“拼装”出更有意思的话题！</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1672,10 +1699,14 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>太好了！兴趣可是科研的燃料，点燃它我们就能把“实验室咖啡机”也改成“能量弹”。  
-你说的“这个课题”到底是哪块儿？是机器学习的“黑箱解释”，还是结构力学的“桥梁自愈”，亦或是我们实验室里传说中的“永不掉线的无线充电”？
-不管是哪一种，先给我一个关键词，我马上把我的“工程师小本本”翻出来——上面已经预留了几页空白，专门等你来填。😉
-另外，如果你有什么小想法或者奇怪的灵感（比如把3D打印机改装成披萨机），尽管抛出来，咱们一起把它揉进实验设计里。欢迎加入讨论，期待听到你的“脑洞”！</t>
+          <t>太好了！兴趣是科研的燃料，点燃它我们就能一起冲上“知识的快车”。  
+你对哪个方向最感兴趣？是算法的理论推导、硬件实现的细节，还是实验数据的可视化？  
+不管是哪块，我这边有几本“老黄历”笔记和一堆未完成的实验报告，随时可以分享。  
+要不先来个“快速 1‑2‑3”自我介绍：  
+1️⃣ 你最想解决的核心问题是什么？  
+2️⃣ 你平时喜欢用哪些工具或语言（MATLAB、Python、C++…）？  
+3️⃣ 有没有什么“奇思妙想”已经在脑子里酝酿了？  
+聊开了，合作的火花说不定就蹦出来了！🚀</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1707,9 +1738,9 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>哈哈，别说，我的外卖备注里也经常出现“不要香菜”。每次看到那行字，我都忍不住想：这位同学一定是对味觉有着严苛的“质量控制”。🤓
-作为工科生，我甚至想给外卖小哥装个“配料过滤器”，一键把香菜挡在门外——不过估计得先把算法调到“不容忍任何绿色叶子”。  
-说真的，你平时还有哪些“必选/必剔”呢？我这边除了香菜，还挺怕辣的，点餐时常常要加“少辣”。如果你有好用的外卖APP技巧或者隐藏的“无香菜”餐厅推荐，别吝啬，分享一下呗！一起把外卖变成“零误差”的完美工程。😉</t>
+          <t>哈哈，别说，我的外卖备注里也常常出现“不要香菜”。其实我这叫“工程师式的容差控制”——把每一道工序的变量都尽量降到最小，连调味料都不例外 😄。
+不过说真的，香菜这玩意儿真的把人划分成了两大阵营：爱它的“绿叶党”和躲它的“无香族”。我有一次点了泰式咖喱，结果厨房大哥把整盆香菜都撒进去，我差点把筷子当成了探针去探测到底还有没有残留的香菜。最后只好把咖喱改成“无香版”，顺便给外卖小哥加了句：“请把香菜留给喜欢它的人，谢谢！”
+你平时还有哪些“必须排除”的配料或调味？我这边还有“不要蒜、不要辣”的小清单，随时可以共享，免得下次点餐时又被“意外”惊喜。祝我们都能点到心仪的无香菜外卖，吃得开心、码得顺畅！ 🚀🍜</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1741,13 +1772,16 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>哎呀，修路这事儿总是让人措手不及——原本熟悉的摆渡线路一变，像是把“导航”从自动模式切换成了手动操作。  
-作为工科学生，我不禁想把这段“临时改道”当成一次小实验：  
-1. **数据采集**：记录一下新路线的里程、耗时和沿途的风景（顺便看看有没有隐藏的咖啡店）。  
-2. **模型预测**：用线性回归估算一下这条路的平均等车时间，和原来的对比到底提升还是下降。  
-3. **优化建议**：如果发现某个路口总是拥堵，顺手给交管部门提个小建议——比如加装几盏 LED 指示灯，或是设置临时的左转专用道。  
-不过，最重要的还是**保持好心情**。路改了，倒是给了我们一个“探险”的机会——也许能发现平时错过的校园小景点，或者顺路买到那家刚开业的甜品店。  
-你现在是怎么应对的？是已经找到了新的上车点，还是在等候时刷剧打发时间？如果需要，我可以帮你算算哪条路线在高峰期更省时，或者聊聊最近有什么好看的科幻电影，帮你把等车的无聊时间变成“充电”时光。 😄</t>
+          <t>哎呀，路修得跟拼图一样，哪块儿搬了哪块儿又不告诉你！  
+摆渡车改道了，是不是让你在站台上多站了几分钟，顺便练练“等车的耐心”了？😂  
+作为工科学生，我倒是忍不住想把这段“临时路线”画成流程图——  
+1️⃣ 发现摆渡车不来 → 2️⃣ 打开地图看看有没有旁路 → 3️⃣ “哎呀，这条路居然比原来更风景” → 4️⃣ 把这段小冒险写进日记，顺便给朋友们推荐个“隐藏景点”。  
+如果你也想省点时间，倒是可以试试以下几个小技巧：  
+- **实时导航**：很多导航软件会自动更新临时封路信息，甚至还能给出步行+骑行的混合方案。  
+- **询问站点工作人员**：他们通常会有最新的临时公交或摆渡车时刻表。  
+- **提前规划**：如果知道路段要封，提前把目的地的出入口标记好，等路通了再冲。  
+说不定这次改道还能让你发现平时不注意的街角咖啡店，顺便给忙碌的生活加点“意外惊喜”。要不，等路修完了我们一起去尝尝那家新开的奶茶店，顺便聊聊怎么把临时路线优化成“最短路径”，给城市的交通小团队出个建议？😉
+路虽堵，心情别堵，祝你顺利绕过去，早日到达目的地！如果还有别的“路上奇遇”，随时跟我分享，我这边还有不少“工程师的奇葩经历”。祝好！</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1784,9 +1818,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>哈哈，谢谢夸奖！不过说实话，我的“哲理”大多是从实验室的“走不通的电路图”和宿舍的“迷路路线”里抽取的。  
-说到摆渡车改道，这种突如其来的“绕路”其实跟我们做项目时常遇到的意外bug有点像——本来计划好一步到位，结果系统提示要先走个旁路。  
-你那边的改道情况怎么样？路上有没有发现什么有趣的风景，或者意外的“隐藏彩蛋”？如果需要个临时的“工程师指南”，我这儿倒是有几招可以帮你快速算出最省时的替代路线（当然，前提是别把实验室的公式直接套进现实路况😂）。</t>
+          <t>哈哈，谢谢夸奖！其实路上绕个弯，往往能发现一些“隐藏的风景”，就像实验出错时意外得到的新思路。你这次的摆渡车改道，顺路看到什么有趣的景致了吗？如果路途有点晕头转向，我这颗“工程脑袋”随时可以帮你算算最省时的回家路线哦 😄</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1818,8 +1850,10 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>哈哈，没错，我也是来抢“雨伞大礼包”的！不过我更像是个“雨伞侦探”，专门找失主的。要不我们一起看看这把伞到底是属于哪位幸运儿的？要是找不到，我可以先帮你挡挡雨，等雨停了再一起想办法归还。😄
-顺便说一句，雨天最适合聊聊工程小趣事——比如为什么屋顶的排水系统总是比我们想的更“聪明”。你对这类话题感兴趣吗？如果不想聊技术，我也可以分享几招在雨天不把鞋子弄湿的“工程学”小技巧。</t>
+          <t>哈哈，没错，我也是来“抢伞”的——不过我更像是来做一次“现场调研”。  
+作为工科学生，我总忍不住想：这把伞的结构是不是还能再轻一点？雨伞的折叠机制能不能改成“一键自动收纳”？要是能把雨伞和充电宝合体，那就更完美了！  
+不过先说正事——你看中的那把伞是哪个颜色的？要不我们一起把它领回去，顺便给它来个“工程师版”保养计划：防水检查、骨架加固、随时准备应对突如其来的暴雨。  
+要是你也有类似的“雨伞改造”灵感，别客气，分享出来聊聊吧！🌂😄</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1856,8 +1890,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>哈哈，蓝色的伞果然有磁场，先把它“吸”到我这儿来了！不过看起来它真的应该归你所有——我可不想冒领别人的“专属装备”。  
-要不我们一起确认一下？比如比划一下伞柄的形状，或者看看伞面上有没有你平时爱贴的那张小贴纸？如果真的属于你，我马上把它送回“失主”手中；要是我误会了，咱们再找找别的蓝色宝贝——顺便聊聊今天的天气，或者一起去喝杯热咖啡，给这场“伞的误会”画上个温暖的句号？😄</t>
+          <t>哈哈，看来蓝色的“失踪案”已经有了线索！要不我们来个小侦探游戏——你记得伞柄上有没有什么特别的标记，或者上次是在哪个咖啡馆被“遗忘”的？如果真的匹配，我立马把它归还给它的“主人”。要是还有别的伞也在找主人，咱们一起帮它们找回“家”。😄</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1889,10 +1922,10 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>哎呀，真是让人“肉”不欲生啊！😂  
-我这就去给您把“香菇菜包”抢回来，保证让它们在蒸笼里“香”得冒泡、在口中“菇”得开花。  
-如果您还有别的想法——比如再来几个“素颜”小伙伴，或者来点儿“配套饮料”来调剂一下口味——尽管吩咐，我这边立马安排。  
-再次抱歉让您先尝了“肉味”，下次一定让您只吃到“香菇的甜”。祝您今天胃口大开，心情更好！ 🌟🍄🥟</t>
+          <t>老板，我这边马上给您“香菇菜包”加急处理，保证让它们在锅里先开个“菌”会儿，别让肉馅抢风头了 😄。
+先跟您确认一下：您需要的份量和口味（比如加点胡萝卜碎或是多点香菜）有没有特别要求？如果还有别的配菜想一起点，我可以一起帮您安排，争取一次性把餐桌装满“菌”情满满的惊喜。
+等一下，我马上去厨房和师傅沟通，确保香菇的鲜香和蔬菜的清甜都恰到好处。稍后我会把新鲜出炉的香菇菜包送到您手上，确保您吃得满意、笑得开心！
+如果您还有其他需求或想要再加点儿饮料、甜点，随时跟我说，我这边全力配合。祝您今天的工作像这包子一样——外酥里嫩，充满惊喜！ 🌟</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1924,13 +1957,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>哈哈，原来你也在练《π》的主题曲呀！这首曲子可真是“圆”得让人头疼——一不小心就会卡在那几个“π”字母的转折处。  
-其实我也曾经在键盘（或吉他、钢琴）上拚命追逐那段高难度的连音，结果手指差点儿被“无限循环”给绊倒。每次卡壳的时候，我都会先深呼吸两次，想象自己在一个巨大的π符号里打太极——既要保持平衡，又要顺势转动。  
-如果你愿意分享一下你卡在哪个小节，或者是哪种乐器，我可以给你一点小技巧：  
-1. **慢速分段练习**——把卡住的那几小节放慢到原速的 50%，确保每个音都准确落指。  
-2. **“拍手版”先行**——先把旋律拍手敲出来，感受节奏的起伏，再把手指交给乐器。  
-3. **脑内“走谱”**——闭上眼睛，用想象的方式把音符在脑海里走一遍，等脑子里已经跑通了，再打开乐器。  
-别忘了，卡壳其实是进步的“提醒灯”，只要坚持下来，等你把整段顺畅弹出来的时候，那种成就感会比解开π的无限小数还让人爽！加油，我相信你的指尖很快就能把它“圆满”完成。 🎶🚀</t>
+          <t>哈哈，别说，我也曾经“弹”过《π》的主题曲——不过那时候我把吉他当成了示波器，结果只听见了噪声和“哔哔”声。  
+先问一句，你是用什么乐器弹的？钢琴、吉他还是别的？我记得那段旋律里有几个跳跃的八度，跟我们平时写的“π”值一样，瞬间就会让人卡壳——尤其是当手指还在“算数”时。  
+如果卡在某个小节，下面几个小技巧或许能帮你把“卡壳”变成“卡点”：
+1. **慢速分段练习**：把整段拆成 2‑4 小小的乐句，先把每个乐句的指法和节奏练到手指记忆，然后再把它们连起来。就像我们在做算法时，把大问题拆成子问题一样，逐个击破。
+2. **数拍子+数π**：这段主题的拍子里有不少 3/4 或 6/8 的交叉节拍。试着在脑子里默念 π≈3.1415…，每数一个数字对应一个拍子，既能帮助保持节奏，又能顺带练习记忆 π，双赢！
+3. **录音回放**：把自己弹的每次练习录下来，放慢播放，找出卡点的具体原因——是指法不顺、还是手指力度不足。我们工程里常说“先测后改”，音乐也不例外。
+4. **换个调子**：如果原调实在太高或太低导致手指伸展不舒服，可以临时把曲子移到一个更友好的调子（比如升半音或降半音），等手感熟练后再搬回原调。就像我们在做电路仿真时，先把参数调到容易收敛的区间，再逐步恢复真实值。
+最重要的是别给自己太大压力——卡壳是学习的必经之路，正像我们在写代码时遇到的“bug”。每一次卡住，都是一次调试的机会，等你把它修好后，弹出来的那段会比原来更顺滑、更有味道。
+要不把你卡的那小节发给我（如果方便的话），我帮你一起看看指法怎么优化？或者我们可以一起约个时间，线上来个“弹奏+代码”双重挑战——先把《π》主题弹顺，再用 Python 把 π 的前 100 位打印出来，看看音乐和数学到底谁更“卡”。 😄
+加油，期待听到你完整流畅的版本！如果还有别的曲子想聊，随时来找我——我这台“工程师的脑子”里，除了电路图还有不少乐谱呢。</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1962,15 +1998,21 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>哈哈，想让我来段“现场演唱”呀！虽然我没有麦克风，也唱不出动听的旋律，但可以给你即兴写几句小调，凑合凑合吧：
+          <t>嘿，兄弟（姐妹）！要是我真有嗓子，我早就把实验室的噪声当卡拉OK舞台了——不过我这“声带”是键盘和代码，实在是唱不出来。不过，既然你想听点儿“歌”，我可以给你来段文字版的小曲，保证不走音、不会跑调，甚至还能顺便给你来点儿工程小彩蛋，怎么样？
+---
+**🎶《小星星》——公有领域，随时点播**  
+（中文译本，大家都熟悉的那首）
 ```
-（哼）  
-代码敲得手指快，  
-咖啡杯里梦在开。  
-键盘敲起节拍来，  
-AI 小助手陪你嗨！  
+一闪一闪亮晶晶，
+满天都是小星星。
+挂在天空像灯泡，
+照亮夜空好梦多。
+一闪一闪亮晶晶，
+把我的心也点亮。
 ```
-如果你想听正式的歌曲，我可以给你推荐几首好听的，或者聊聊哪首歌最适合工科人的“加班夜”。你更喜欢哪种风格？ 🎧😊</t>
+如果你更想听点儿摇滚、流行，或者老歌（只要是公有领域的），随时告诉我！我还能把歌词配上点儿“工程笑话”——比如把“电路图”改成“星星的连线”，保准让你笑出声来。
+---
+顺便问一下，你平时最爱听哪种风格的音乐？要不我们一起把它“翻译”成代码，来一次“音乐+算法”的跨界实验？😉</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2002,14 +2044,13 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>哈哈，这种“等风还是等通知”的尴尬时刻，倒是让我想起了实验室里等仪器校准的感觉——明明已经准备好，结果仪器自己决定“再等等”。  
-先安慰一下自己：飞机迟到，说明它也想给我们多点时间，好好欣赏一下机场的“艺术装置”（比如那几只不知何时出现的鸽子，和永远在跑的行李转盘）。  
-如果想把这段等待变得更有价值，倒是有几个小技巧可以试试：
-1. **充电+学习**：把手机、平板充满电，打开你感兴趣的技术博客或课程。比如最近热门的《量子计算入门》或是机器学习的实战案例，顺便给自己打个“延误学习积分”。  
-2. **小运动**：在候机厅里走走，做几个伸展动作，防止长时间坐着导致腰酸背痛。顺便还能让旁边的乘客误以为你在做“机场健身”。  
-3. **社交小互动**：如果旁边有人也在抱怨，轻松地打个招呼：“这趟航班好像在练‘耐心’课程，您也是等风吗？”往往会收获一个会心的笑容，甚至聊出一些旅行小经验。  
-4. **记录灵感**：工程学生的灵感常常在不经意间冒出来。把你对飞机延误的“系统瓶颈分析”记下来，或许以后写项目报告时可以当个有趣的案例。  
-最后，别忘了保持好心情——毕竟，飞机迟到的背后，可能只是天气在给它“加点儿特效”。等到起飞的那一刻，你会发现这段“等风”时间已经悄悄被你填满了价值。祝你顺利起飞，旅途愉快！✈️😊</t>
+          <t>哎呀，又被延误了，感觉飞机像是“等风来”还是“等通知来”。  
+其实从工程师的角度看，飞机的调度就像我们实验室的排队做实验——  
+- **等风**：如果天气不配合，机组只能等大气把“安全阈值”调到合适的范围，毕竟安全第一，哪怕要把航班变成“慢速滑翔”。  
+- **等通知**：空管系统的指令就像实验室的仪器校准报告，必须先得到批准才能启动，否则一跑就可能出现“数据漂移”。  
+所以，这趟航班大概是两者都在排队——既要等自然的配合，又要等系统的“绿灯”。  
+别担心，等的时间里可以把手机里的离线音乐、电影或是一本好书准备好，等到起飞的那一刻，你会发现自己已经“充电”完毕，准备好迎接下一段“飞行实验”。  
+祝你很快登机，顺风而行！如果还有什么想聊的（比如怎么在航站楼里找个安静角落打盹），随时来聊～✈️😊</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2041,8 +2082,9 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>哈哈，实验总是爱跟我们开玩笑的！刚才我把试管当成了咖啡杯，差点儿把“浓缩咖啡”送进显微镜。结果当然是——实验进度慢了几拍，但笑点却上升了好几个档次。😊
-你的实验遇到什么“顽皮”了？说不定我们可以一起想想怎么把它哄回正轨——毕竟，实验室的“八卦”也是科研的一部分嘛！如果需要帮忙，随时喊我，我的“实验室求生指南”已经准备好啦。</t>
+          <t>哈哈，实验室的“戏码”总是比剧本还精彩！刚刚我那套电路实验，结果电阻们好像开了个“聚会”，一路嗡嗡响，最后居然把指示灯点成了彩灯模式——我差点以为自己搞了个灯光秀。  
+你那边遇到什么“意外”了吗？别担心，实验不顺利其实是科研的必修课——每一次“翻车”都在悄悄给我们加经验值。要不我们一起把这段“尴尬”转成笑点，顺便互相抛点小技巧？比如，我后来发现把面包板的接线顺序倒过来检查一遍，问题立马现形——就像找钥匙，先把房间翻个底朝天，钥匙自然会露头。  
+期待听听你的“实验八卦”，说不定还能一起想出点“救急”方案呢！祝你的实验快点进入“顺风顺水”模式，别忘了给自己来杯提神的咖啡——科学家都说，咖啡因是最好的“调试工具”。😉</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2080,8 +2122,13 @@
       <c r="F43" t="inlineStr">
         <is>
           <t>谢谢鼓励！💪  
-其实实验室里每天都在上演“惊喜剧”，有时是仪器突然罢工，有时是数据自己跑偏——不过我已经把它们当成了“隐藏的彩蛋”，每找到一个都算是小胜利。  
-你那边最近有什么让你“抓狂”或“惊喜”的项目吗？要不要一起聊聊，互相分享点“逃脱秘籍”？😊</t>
+其实实验今天真的把我整得像在玩“捉迷藏”——仪器先躲，我再找。每次找不到关键参数时，我都忍不住想：“这玩意儿是不是在偷懒？”  
+不过，正因为它们会“躲”，我才有机会练出更敏锐的“侦探”技能。下次再遇到不配合的仪器，我已经准备好：
+1. **先给它来点“甜言蜜语”**（调好电源、检查接地，别让它觉得被冷落）。  
+2. **再来点“硬核追踪”**（逐步排查每根线、每个接口，像找线索一样）。  
+3. **最后用“奖励机制”**（把成功的结果记录下来，给自己来一杯咖啡或小零食）。  
+如果今天的实验真的不太给力，别忘了——失败只是成功的预热曲，等到数据终于配合时，那种成就感简直比毕业答辩还爽！😄
+一起加油吧，等实验顺利了，我请你喝一杯“成功特调”咖啡，怎么样？祝你今天的实验也能顺风顺水，别让仪器抢了风头！🚀</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2113,9 +2160,10 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>哎呀，听起来像是实验室里意外的“材料配方”呀！  
-墨鱼的海味加上面包的松软，究竟是“咸香浓郁”还是“海风拂面”呢？我这边的实验室里常常把咖啡渣和电路板屑混在一起——味道可不敢保证能上桌 😅  
-如果你敢打个分，我给它一个“创新度+5，接受度‑2”的小标签，哈哈。要不下次我们一起找找还有哪些“奇葩”组合，顺便看看它们的“热传导系数”是不是也跟味道一样特别？祝你这口“墨鱼面包”带来好心情！</t>
+          <t>哎呀，听起来像是“海底捞”升级版的实验品啊！🍞🦑  
+我这工程系的脑袋一听到“墨鱼”，立刻联想到“黑色导电油墨”，要不怎么说它味道“特别”——可能是把味蕾也给“短路”了？  
+说真的，你觉得它的口感是更像软绵的面包，还是带点弹性的海藻？如果味道真的像海底的秘密实验室，我倒是挺想帮你做个“味觉传感器”，记录下每一口的电压变化，顺便给老师交个报告——“实验对象：墨鱼面包，结果：惊喜指数超标”。  
+要不我们一起想想，怎么把这份“特别”变成下次聚会的独家配方？我可以负责把配方画成电路图，你负责品尝，保证大家都能“接地”成功，笑声不掉线！😄</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2147,9 +2195,10 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>哈哈，看来我们俩的“网络危机”撞在一起了！我也刚报了修，顺便给师傅留了个“加急”备注——毕竟工程专业的我们，总想把问题压缩到“秒级”。  
-十分钟听起来不算太久，要不我们一起等吧？可以聊聊最近的课程、实验室的奇葩实验，或者互相分享一下怎么在网速慢得像蜗牛时保持效率（比如刷论文、画电路图、练习写代码的“离线版”）。  
-如果你想先打发时间，我这儿正好有几个有趣的工程小笑话，或者可以一起玩玩“猜猜今天的网络故障是光纤还是路由器”。等师傅到的时候，我们已经把“等待”变成了小聚会啦！😄</t>
+          <t>哈哈，看来我们俩的网络都被“抢修”了！我这边也刚报了，估计要跟师傅一起玩“十分钟极速抢修赛”。  
+不过说实话，等技术员来之前，我已经准备好几本《电路分析》把时间填满——要不你也来一起复习复习？  
+要是等太久，咱们还能把这段“网络黑洞”当成临时的“无网自习室”，顺便练练手写代码的思维导图。  
+不管怎样，十分钟很快就到，等师傅来了我们就能恢复“线上社交”。先祝你等候的这段时间不太无聊，等会儿再聊聊网络恢复后的“网速飙升”感受吧！ 🚀😊</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2181,10 +2230,9 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>嗨，小王！很高兴认识隔壁组的催化达人——我可是你们实验室的“邻居”哦 😄  
-我在做光电材料，专注于把光子变成电流的那点事儿。平时和光子聊聊天，偶尔也会和电子玩玩“追逐赛”。听说催化材料在加速化学反应上可是“加速器”，我这边的光电转换有时也需要点催化剂的“助攻”，所以我们其实是同一条生产线的两位“配角”，只不过各自跑在不同的舞台上。
-说到实验室的日常，你们最近在催化哪个反应？有没有什么“奇葩”实验现象或者“惊喜”发现，愿不愿意跟我分享一下？我也可以聊聊我们光电阵列里那些“灯泡不亮却闪光”的小插曲，保证让你笑出声 😆
-期待和你多交流，或许哪天我们还能一起搞个跨组的“光‑催”联动实验，双双升级实验室的“颜值”和“效率”！</t>
+          <t>嗨，小王！很高兴认识隔壁的催化达人——我这边正好是“能源小分子”组的，主要玩电池材料和储能器件。说到催化，我倒是常常想，如果我们的实验室咖啡机也能装个催化剂，估计每天的实验报告都能提前一半完成😂。
+你的催化材料研究听起来很酷啊！是偏向于金属纳米颗粒，还是有机‑金属框架之类的？如果哪天需要点“加速剂”来推动我们的实验进度，记得叫我来支援——我这边的电化学实验也经常需要一点“催化灵感”。 
+有什么有趣的实验故事或者最近的突破，随时聊聊呀！祝实验顺利，别让催化剂跑到别的组去偷跑了😉。</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2216,8 +2264,8 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>谢谢你的好意！我这边倒是有点“小故障”——刚刚把咖啡杯和实验仪器搞混了，差点把电路板当成了咖啡杯垫。😅
-不知你是擅长电路调试，还是咖啡冲泡？如果有哪块可以帮忙的，咱们一起把“电路”和“咖啡因”都调到最佳状态！</t>
+          <t>哈哈，你这句“需要帮忙吗？”听起来像是我在实验室里被仪器卡住了要呼救呢！其实我这边倒是挺闲的——刚把一堆电路图画完，手里正好有几支笔（还有一杯咖啡），随时准备当你的“技术支援”。  
+有什么我能帮忙的，尽管说吧！不管是找资料、拆装小玩意儿，还是想聊聊最近的科技八卦，我都乐意上阵。😊</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2254,7 +2302,9 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>哈哈，看来你已经把“接口”这把钥匙递到我手里了！不过我这边只能在文字世界里“调试”，如果你能把具体的请求格式、参数或者期望的返回示例贴出来，我立马帮你“跑通”。要是还有报错信息或者调试日志，也一起扔进来——我可不想错过任何一个隐藏的彩蛋 😄。等你发来细节，我这边马上开工！</t>
+          <t>当然，准备就绪！🚀  
+只要把接口的请求方式、地址和需要的参数丢给我，我立马上演一次“代码小实验”。  
+如果你想先聊聊接口的背景（比如它是干什么的、有什么坑），也完全没问题——我这边的调试台已经暖机完毕，随时待命。 😄</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2286,8 +2336,9 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>当然可以！只要把标识上的文字（或者拍张图）发给我，我立马帮你翻译成中文/英文/其他语言。  
-如果图片不方便上传，也可以把文字直接复制粘贴或口头描述一下——我这边的“翻译引擎”随时待命 😄。</t>
+          <t>当然可以！不过我看不到图片，能把标识上的文字复制粘贴给我，或者把主要内容打出来吗？  
+（如果是图里还有图案、颜色之类的细节，也可以顺便描述一下——有时候“红灯停、绿灯行”这种图形信息也会影响翻译的味道哦 😄）  
+等你发来内容，我立马帮你翻译成英文（或者其他语言），保证既准确又不失“工科学生的严谨”。</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2324,8 +2375,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>不客气！能帮上忙我就很满足啦 😄  
-还有别的标识、技术文档，或者想聊聊工程小趣事的，都可以找我哦！祝你一天都顺顺利利～</t>
+          <t>不客气！如果还有其他文字、技术资料或者生活小细节需要翻译、解释，随时叫我～祝你今天顺利！</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2357,9 +2407,9 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>哈哈，听起来像是“杯子大作战”刚刚结束？别担心，工程师的本事可是把“碎片”也能变成灵感的！  
-如果真的摔碎了，我可以帮你算算这只杯子在受力时的应力分布——顺便提醒你，下一次可以给它装上“防摔护甲”，比如把它放在橡胶垫上，或者干脆改装成“可折叠杯”，一摔就弹回来，省得再“杯”杯而已。  
-不过最重要的是，别让这件小事影响好心情。要不我们聊聊你最喜欢的咖啡口味，或者说说最近在实验室里遇到的有趣“意外”——我这儿可是有一堆“杯子级别”的奇葩实验等着分享呢！😉</t>
+          <t>哈哈，看来这只“杯子”已经成功完成了它的“实验”——验证了“摔碎的声音比预期更响”。别担心，作为工科生，我已经把“杯子碎片回收率”算到 100% 了，后面只要把碎片拼回去，咱们就可以申请专利：“自愈式杯子”。  
+要是还有别的“实验材料”需要帮忙，随时叫我，咱们一起把“实验室”收拾得干干净净，保证不留下任何“未解之谜”。😉
+（顺便说一句，下次如果真的想做杯子强度测试，记得先把安全帽戴好，毕竟我们可是“把安全放在第一位”的工程师呀！）</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2391,7 +2441,8 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，看来我的“雷达”有点儿太灵敏了！如果刚才的问题让你有点“电击”，那我这颗工程师的脑袋瓜子马上调低一下灵敏度，改用柔光模式。😊
+有什么想聊的或者想让我换个角度再探讨的，尽管说，我可是擅长把尖锐的思考“磨平”成圆滑的解决方案的！祝你今天的灵感像电路中的稳压器，既稳又不失活力。</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2423,7 +2474,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，听起来你已经把火星的“自拍”拍得比 Instagram 还清晰了！  
+我这边倒是没带望远镜——毕竟工程实验室的显微镜更常被我“抢”走——但我可以帮你算算如果把火星的直径（≈ 6 800 km）和我们在地球上看到的角直径（大约 25 秒弧），需要多大口径的镜子才能把细节再放大到“像素级”。  
+如果你有兴趣，我可以给你推荐几款性价比高的业余天文望远镜，或者聊聊最近的火星探测任务（比如 Perseverance 那只小火星车的“自拍杆”）。  
+对了，你最想在火星上“看到”什么？是那条著名的 Valles Marineris，还是想象一下未来的火星咖啡馆？😄
+（顺便说一句，如果哪天真的要去火星，我一定会带上工程师的“万能工具箱”，确保我们能在红色星球上顺利搭建“露天实验室”。）</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2455,31 +2510,13 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>啊，饮料卡住了！这可真是“液体堵车”，不过别担心，工程师的脑袋里总有几招应急方案。先给你几个实用的“小技巧”，顺便来点轻松的调侃，帮你把这场“饮料危机”顺利化解：
----
-### 1️⃣ 确认卡在哪儿
-- **瓶口/瓶塞**：瓶盖拧得太紧，或者瓶口有残渣卡住。
-- **吸管**：吸管里有气泡或残渣，导致饮料不上来。
-- **自动售卖机/饮水机**：杯子或管路被卡住。
-&gt; *如果你不确定具体位置，先把“现场”描述一下，我可以帮你更精准定位哦！*
----
-### 2️⃣ 快速自救技巧
-| 场景 | 操作步骤 | 小贴士 |
-|------|----------|--------|
-| **瓶口/瓶塞** | 1. 轻轻敲几下瓶底（节奏感要好，像在给瓶子“打拍子”）&lt;br&gt;2. 用温水稍微浸泡瓶口（不需要沸水，温热就行）&lt;br&gt;3. 再次尝试旋开或倒出 | 温水能让塑料稍微膨胀，金属螺纹也会松动。 |
-| **吸管** | 1. 把吸管两端轻轻弯成“V”形，制造一点负压&lt;br&gt;2. 用手指封住吸管另一端，快速抽吸几次&lt;br&gt;3. 若仍卡住，可用细针轻轻挑开堵塞物 | 小心别把针刺进嘴里，安全第一！ |
-| **自动售卖机/饮水机** | 1. 先把机器电源关掉（安全第一）&lt;br&gt;2. 用细长的塑料棒或牙签轻轻挑出卡住的杯子/瓶子&lt;br&gt;3. 检查机器内部是否有碎屑，清理干净后再通电 | 若机器本身故障，最好联系售后或管理员。 |
-| **其他** | 1. 把卡住的容器轻轻倾斜，利用重力帮助流动&lt;br&gt;2. 用勺子或小刀轻轻刮除卡在瓶口的残渣 | 切记动作要柔和，避免破坏容器。 |
----
-### 3️⃣ 小幽默调剂一下
-&gt; “饮料卡住了”其实是它在向我们示威：‘我想慢慢品味，别急！’  
-&gt; 只要我们稍微给它点耐心和技巧，它就会乖乖流下来——就像代码调试一样，先把卡点定位，再一步步“敲除”。
----
-### 4️⃣ 需要进一步帮助？
-如果以上方法都不奏效，或者你碰到的是更奇怪的情况（比如饮料在冰箱里卡住、或者是自制的DIY饮料装置卡住），**把具体情形告诉我**——比如瓶子材质、卡住的部位、有没有异味等，我可以给出更精准的工程师级建议。
----
-**祝你顺利把饮料解救出来！**  
-如果还有别的“卡点”需要拆解（不管是生活小事还是学习上的难题），随时来聊，我这颗“工科脑袋”随时待命。 🍹🚀</t>
+          <t>哈哈，听起来像是“饮料卡位”大赛的冠军选手呀！🤭  
+先不急着给它颁奖，先看看是哪儿卡住了：
+1. **吸管卡住**：可以先把吸管轻轻抽出来，或者把吸管头稍微压扁点儿，让它更顺滑。要是实在不行，换根新吸管也是个“工程替换”方案——毕竟我们工程师最擅长换部件啦！
+2. **瓶口卡住**：如果是瓶盖拧不下来，试试把瓶子倒置，用手掌轻轻敲击瓶盖底部（记得别把饮料洒出来哦），或者用橡皮筋套在瓶盖上增加摩擦力，再拧一拧。
+3. **杯子里卡渣**：如果是冰块或果肉卡在杯口，先把杯子倾斜，让重力帮忙“搬运”。再配合一根细长的勺子或筷子轻轻挑出来——这招在实验室里也常用，叫“手动过滤”。
+如果以上都不奏效，别担心，咱们可以把它当作一次“小实验”，记录下卡住的部位、温度、压力……说不定还能写成《饮料卡位现象的工程分析报告》呢，顺便给同学们上堂“生活中的力学”课。😉
+先把卡住的情况告诉我，我再帮你想更具体的“解卡方案”。祝你顺利“解锁”美味！🍹✨</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2516,7 +2553,9 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>太棒了！🎉  
+卡住的饮料终于“脱困”了，看来它也被你的“工程师魔法”说服了。  
+有什么小技巧或者“神器”帮你把它拽出来的？下次要是再遇到卡壳的东西，记得叫我一起出马——我这边还有螺丝刀、胶带和无限的好奇心等着上场呢！😄</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2548,7 +2587,13 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>总监好！哎呀，听到“小刘”这两个字，我立马想到实验室里那只总爱抢我的螺丝刀的实验鼠——它可是名副其实的“实习生”。😄
+欢迎加入我们的“工程大军”！作为同是工科背景的“老兵”，先给你支支招：
+1. **咖啡机是社交中心**——不管是抢咖啡还是聊项目，都是快速破冰的好地方。  
+2. **别怕问问题**——我们都经历过“这块板子到底是干嘛的？”的瞬间，提问是成长的加速键。  
+3. **把图纸当成小说**——先把每一页的符号和标注读懂，后面剧情（也就是项目进度）自然就顺畅了。
+如果你在实验室里迷路了（比如找不到那台总是发出“嗡嗡”声的仪器），随时来找我——我保证不把你带去“神秘的”维修间，除非你想体验一下“电路板上的惊喜”。😉
+期待和你一起“码”出好项目，也一起吐槽一下那些让人抓狂的实验报告格式！有什么需要帮忙的，直接喊我哈。祝实习顺利，天天都有灵感的“电流”冲击！🚀</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2580,7 +2625,13 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哎呀，看来我们的“快递星际航线”走错了方向！😅  
+先不急，我这边先确认一下：  
+1️⃣ 你手里的是啥快递（大概的外包装或收件人名字）？  
+2️⃣ 我这边收到的又是啥（如果已经打开的话也可以简单描述一下）？
+如果真的互相“抢了”对方的包裹，最稳妥的办法就是先拍张照片留存，随后联系对应的快递公司或寄件方，说明情况，通常他们会安排重新投递或上门取件。  
+当然，如果你手里的是我这边的“实验材料”或“电子元件”，我可以马上把它送过去——顺路的话还能顺便聊聊最近的项目，省得我们俩都浪费时间在快递上。
+先把信息给我，我这边立刻跟快递公司沟通，争取把包裹“归位”。别担心，错位的快递也能变成一次有趣的“偶遇”。😉</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2617,7 +2668,8 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>没事的，偶尔把快递当成“盲盒”也是生活的小惊喜嘛 😄  
+要不我们先把包裹的收件信息核对一下？如果真的发错了，我可以帮你联系快递公司，或者把包裹转给正确的朋友。这样既省事，又不浪费时间，大家都能轻松收回自己的宝贝。你看这样安排合适吗？</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2649,7 +2701,10 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>嗨！很高兴遇到同样对“微观世界”充满好奇的朋友。🧬✨
+我是一名工科学生，主修材料与纳米工程。现在正和实验室的伙伴们一起玩“纳米拼图”，研究如何把超细的金属或陶瓷颗粒组装成既轻又强的结构——想象一下，把一颗微小的“蜘蛛网”嵌进航空航天材料里，既能减重又能提升抗冲击性。说到载体，我的方向更偏向“机械”层面的——比如设计一种能在体内自行导航、精准释放药物的微型机器人壳体，让药物像快递一样精准送达目标组织。
+听你说在医学院搞纳米药物载体，真的很酷！你们主要关注哪种药物或哪类疾病的递送？有没有碰到哪些让人抓狂但又超有成就感的实验挑战？如果你们需要一点“材料小技巧”或是“结构灵感”，随时找我聊聊，我这边正好有一些关于表面改性和自组装的经验可以分享。😄
+期待听到你的科研故事，也许我们还能碰撞出跨学科的火花呢！</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2681,7 +2736,9 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，看来我们俩都曾在“迷雾”里打转过！🤔  
+不过，具体是哪道“谜题”让你抓耳挠腮的呢？是某门课程的概念，还是实验室里那台总是“捣蛋”的仪器？说出来一起拆解，保证让你瞬间“灯泡亮起”。😄
+（如果你想先聊聊别的轻松话题，我也乐意陪你八卦一下大学里的奇葩瞬间哦！）</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2718,7 +2775,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，看来这道“谜题”真的比我上次的实验报告还要让人抓狂呀！如果你愿意的话，告诉我哪一步卡住了——我可以把我的“工程师思维”借给你，帮你把那段晦涩的概念拆解成几块“可拼装”的小模块。一起把它拼好，保证既不让脑子“短路”，还能顺手练练逻辑思维，怎么样？😄</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2750,7 +2807,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，被你发现啦！其实这两样东西基本是我实验室的“标配”。  
+- 手套：做电路焊接、机械加工、甚至偶尔的3D打印，都离不开它们，防止手上沾上油污或者小划伤。  
+- 酒精：除了实验室里用来消毒仪器、清洁样品外，我还有个小爱好——给手套、工具“擦亮”，顺便练练手部的“消毒舞”。  
+不过说真的，疫情期间大家都养成了多备点防护用品的习惯，我也不例外，顺手多买了点，省得下次忘记跑实验室时手忙脚乱。  
+你平时会在实验室里玩些什么项目？或者有什么“防护神器”推荐吗？😁</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2782,7 +2843,10 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，香菜这件事，我算是“技术派”——先把它的化学成分拆解一下，再决定要不要“装配”。  
+从味觉的角度看，香菜的挥发油里有点儿类似“硫化物”的味道，很多人会觉得它像是“实验室的清洁剂”。于是我就把它归类到“需要特殊过滤器才能接受”的调味料。  
+不过，身为工科学生，我也懂得“兼容性”重要——如果你真的想把香菜加入菜里，我可以帮你设计一个“低浓度、局部喷雾式”添加方案，保证味蕾不被“报警”。  
+当然啦，偶尔也会在朋友的聚餐里偷偷尝一口，看看自己的“传感器”到底能不能适应。要不下次我们一起实验一下，我负责记录数据，你负责品尝，保证结果既科学又有趣！😄</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2819,7 +2883,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，看来我们在“香菜”这件事上是同频的！  
+其实科学上有解释：大约有10% ~ 15% 的人天生对香菜里的某些醛类化合物超敏感，一闻到就会联想到肥皂或是金属味——简直是基因给的“味觉防火墙”。  
+我自己也算是“防火墙”里的忠实守卫，实验室里哪怕是偶尔有人顺手撒了点香菜，我都能第一时间举手报警：“注意！这里有潜在的味觉危机！”  
+不过，倒是有时候可以把这当成一个小挑战——比如把香菜换成同样清爽的罗勒、薄荷，或者直接把它切得极细、拌进酱油里，低调一点，味道也不至于“抢戏”。  
+要不，下次我们一起点外卖时，我负责挑选不含香菜的菜品，你负责给我推荐几道“无香菜”必点的美食？这样既能满足味蕾，又能让我们在“反香菜联盟”里继续并肩作战，何乐而不为 😄。</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2851,7 +2919,13 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，这句话听起来像是给某位“能量供应站”打的标签呀！🤖
+如果他是你的同学、同事，或者那只总是把零食藏在抽屉里的“神秘生物”，那我猜——他的“粮食”大概是：
+1. **咖啡因**：工程师的燃料，没它怎么写代码、画电路？  
+2. **宵夜**：深夜实验室的必备，尤其是那碗热气腾腾的泡面。  
+3. **灵感**：有时候灵感本身就像能量条，吃一口就能冲刺到下一个创意点。
+不过说真的，你说的“粮食”到底是指什么呢？是某个项目的“核心材料”，还是他平时的“最爱零食”呀？如果是前者，我可以帮你一起算算材料用量；如果是后者，我倒是可以推荐几款既好吃又不怕弄脏键盘的“工程师专属小食”。😄
+来聊聊吧，看看我们能不能一起把这份“粮食”变得更有趣、更高效！</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2883,7 +2957,8 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哎呀，被气流“调戏”了，真是给我的小飞侠上了一堂“自由落体”课！😅  
+谢谢你提醒，我正准备去找找它的“新落脚点”。要是你刚好看到它掉在哪儿，帮忙指个路可不可以？顺便聊聊，你也对无人机感兴趣吗？说不定我们还能一起给它装个防风装置，防止它再去“环游世界”。祝你今天的风向都顺风顺水！</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2915,7 +2990,14 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>如果把我的「能力」包装成超能力，我想它会是——**「瞬间调试万物」**。
+想象一下：只要轻轻一挥手，代码里的 Bug 自动消失，电路图里短路的地方瞬间自我修复，甚至咖啡机的卡纸也能在你眨眼间变成一杯热腾腾的浓香咖啡。  
+这项超能力的好处可不止技术层面：
+1. **省时又省心**——再也不用熬夜追踪那条隐藏在 10 000 行代码里的「神秘」错误。  
+2. **拉近距离**——同学们只要一碰到「卡壳」的实验设备，就能看到我神秘的「调试光环」闪闪发光，气氛瞬间活跃起来。  
+3. **环保加分**——每修好一块坏掉的电子元件，就相当于拯救了一颗小小的硅星球，环保达人称号轻松到手。  
+不过，这种超能力也有点「尴尬」——如果我随手「调试」了别人的作业，可能会被误认为是抄袭神器，老师们可要把我列入「神秘监控名单」了 😅。所以我会把它收在口袋里，只在真正需要「拯救世界」的时刻才拿出来——比如实验室的电路板突然罢工，或者宿舍的 Wi‑Fi 失踪。
+你要是也想拥有一项超能力，推荐你选**「瞬间理解所有数学公式」**——这样我们在讨论项目时，公式不再是「语言障碍」，而是让人惊叹的「共同语言」！😉</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2947,7 +3029,9 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Error: Generation Failed</t>
+          <t>哈哈，看来我们都被“升级”成了学术大咖呀！其实我只是一名普通的工科学生，专业是把电路图弄得像艺术品一样——不过如果哪天真的被叫成“李博导”，我估计只能把实验室的咖啡机调成“导师专用”模式，给大家加点“灵感”。  
+说到“张教授”，听起来就像是把所有数学公式都装进了口袋，随时准备给路人解题。要不我们约个时间，互相“交换名片”，我负责把你的“教授”头衔翻译成“高级实验助理”，你帮我把“博导”改成“技术狂人”，这样大家都能在名字里找到自己的真实定位，省得再被误会啦！😄
+对了，你平时是做哪方面的研究/工作？也许我们可以聊聊工程小趣事，顺便把这些“高大上”的称号留给真正的老师们。</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
